--- a/pymida/aa_info.xlsx
+++ b/pymida/aa_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\Dropbox\berkeley\PyMIDA\isotopomer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A531BEA9-6827-44FD-8FF3-5337462109F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B0C7F-7C7E-4C08-B41F-7215B7CD7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2530" windowWidth="28800" windowHeight="15120" xr2:uid="{C7F09C4B-A01E-4F14-AED1-3E57CCB48F8F}"/>
+    <workbookView xWindow="2860" yWindow="2760" windowWidth="33460" windowHeight="18120" xr2:uid="{C7F09C4B-A01E-4F14-AED1-3E57CCB48F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
